--- a/csv/main-files/Kothrud.xlsx
+++ b/csv/main-files/Kothrud.xlsx
@@ -21,6 +21,12 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="154">
+  <si>
+    <t>Prabhag 27A : Vaishali Marathe</t>
+  </si>
+  <si>
+    <t>Prabhag 26B : Dipak Mankar</t>
+  </si>
   <si>
     <t>Prabhag 26A : Smt. Ashwini Jadhav</t>
   </si>
@@ -52,16 +58,31 @@
     <t>2012 - 2013</t>
   </si>
   <si>
+    <t>Maintenance in Samaj mandir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance in Samaj mandir </t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
     <t>Buckets distribution</t>
   </si>
   <si>
     <t>DB</t>
   </si>
   <si>
+    <t>58 / 66</t>
+  </si>
+  <si>
     <t>62 / 66</t>
   </si>
   <si>
     <t>Benches at various places</t>
+  </si>
+  <si>
+    <t>56/66</t>
   </si>
   <si>
     <t>B</t>
@@ -82,19 +103,31 @@
     <t>Maintenance work</t>
   </si>
   <si>
+    <t>Laying of Tiles in school</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Building shed</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
     <t>Construction of Shed at Samaj Mandir</t>
   </si>
   <si>
-    <t>SM</t>
+    <t>2013 - 2014</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>2013 - 2014</t>
+    <t>Develpoment work at school</t>
   </si>
   <si>
     <t>Computers distribution</t>
@@ -103,7 +136,16 @@
     <t>CO</t>
   </si>
   <si>
+    <t>School playground beautification</t>
+  </si>
+  <si>
+    <t>71/77</t>
+  </si>
+  <si>
     <t>72 / 77</t>
+  </si>
+  <si>
+    <t>52 / 77</t>
   </si>
   <si>
     <t>Electrification,Street lights</t>
@@ -121,37 +163,79 @@
     <t>J</t>
   </si>
   <si>
+    <t>Electrification work- Street lights</t>
+  </si>
+  <si>
+    <t>Drainage line repairing</t>
+  </si>
+  <si>
     <t>2014 - 2015</t>
+  </si>
+  <si>
+    <t>Road works</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Water supply line connection</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>56 / 116</t>
   </si>
   <si>
     <t>Drainage/chamber work</t>
   </si>
   <si>
+    <t>Drainage work/ Laying of Drainage line</t>
+  </si>
+  <si>
+    <t>Concretization at various places</t>
+  </si>
+  <si>
+    <t>110/116</t>
+  </si>
+  <si>
     <t>112 / 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrification work in samaj mandir </t>
   </si>
   <si>
     <t>Electrification</t>
   </si>
   <si>
+    <t>2015 - 2016</t>
+  </si>
+  <si>
     <t>Tin shed installation in school</t>
   </si>
   <si>
-    <t>DW</t>
+    <t>Development work in school</t>
   </si>
   <si>
-    <t>2015 - 2016</t>
+    <t>92/127</t>
   </si>
   <si>
     <t>Toilet Maintenance</t>
   </si>
   <si>
+    <t>Maintainance workin hospital</t>
+  </si>
+  <si>
     <t>TO</t>
+  </si>
+  <si>
+    <t>Installation of benches</t>
   </si>
   <si>
     <t>116/127</t>
   </si>
   <si>
-    <t>Chamber repair work</t>
+    <t>115/127</t>
   </si>
   <si>
     <t>Concretization</t>
@@ -160,97 +244,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>Final Total</t>
-  </si>
-  <si>
-    <t>Prabhag 26B : Dipak Mankar</t>
-  </si>
-  <si>
-    <t>Maintenance in Samaj mandir</t>
-  </si>
-  <si>
-    <t>58 / 66</t>
-  </si>
-  <si>
-    <t>School playground beautification</t>
-  </si>
-  <si>
-    <t>52 / 77</t>
-  </si>
-  <si>
-    <t>Road works</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>56 / 116</t>
-  </si>
-  <si>
-    <t>Drainage work/ Laying of Drainage line</t>
-  </si>
-  <si>
-    <t>Concretization at various places</t>
-  </si>
-  <si>
-    <t>Development work in school</t>
-  </si>
-  <si>
-    <t>92/127</t>
-  </si>
-  <si>
-    <t>Maintainance workin hospital</t>
+    <t>Chamber repair work</t>
   </si>
   <si>
     <t>Maintainace work</t>
-  </si>
-  <si>
-    <t>Prabhag 27A : Vaishali Marathe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance in Samaj mandir </t>
-  </si>
-  <si>
-    <t>56/66</t>
-  </si>
-  <si>
-    <t>Laying of Tiles in school</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Building shed</t>
-  </si>
-  <si>
-    <t>Develpoment work at school</t>
-  </si>
-  <si>
-    <t>71/77</t>
-  </si>
-  <si>
-    <t>Electrification work- Street lights</t>
-  </si>
-  <si>
-    <t>Drainage line repairing</t>
-  </si>
-  <si>
-    <t>Water supply line connection</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>110/116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrification work in samaj mandir </t>
-  </si>
-  <si>
-    <t>Installation of benches</t>
-  </si>
-  <si>
-    <t>115/127</t>
   </si>
   <si>
     <t>Maintance workin samaj mandir</t>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>Toilet Maintainance</t>
+  </si>
+  <si>
+    <t>Final Total</t>
   </si>
   <si>
     <t>Prabhag 27B : Ramchandra Kadam</t>
@@ -292,6 +292,9 @@
     <t>47/77</t>
   </si>
   <si>
+    <t>Prabhag 28A : Jayashree Marne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Concretization </t>
   </si>
   <si>
@@ -302,21 +305,6 @@
   </si>
   <si>
     <t>Laying of Tiles</t>
-  </si>
-  <si>
-    <t>74/116</t>
-  </si>
-  <si>
-    <t>Maintainance work</t>
-  </si>
-  <si>
-    <t>88/127</t>
-  </si>
-  <si>
-    <t>LED fitting</t>
-  </si>
-  <si>
-    <t>Prabhag 28A : Jayashree Marne</t>
   </si>
   <si>
     <t>59/66</t>
@@ -331,25 +319,37 @@
     <t>Direction Boards</t>
   </si>
   <si>
+    <t>74/116</t>
+  </si>
+  <si>
     <t>75/77</t>
+  </si>
+  <si>
+    <t>Maintainance work</t>
   </si>
   <si>
     <t>Electrification work at various places</t>
   </si>
   <si>
+    <t>88/127</t>
+  </si>
+  <si>
     <t>Computer distribution in school</t>
   </si>
   <si>
+    <t>LED fitting</t>
+  </si>
+  <si>
     <t>84/116</t>
+  </si>
+  <si>
+    <t>Prabhag 28B : Kishor Shinde</t>
   </si>
   <si>
     <t>103/127</t>
   </si>
   <si>
     <t>Computers distribution in school</t>
-  </si>
-  <si>
-    <t>Prabhag 28B : Kishor Shinde</t>
   </si>
   <si>
     <t>56/77</t>
@@ -409,16 +409,16 @@
     <t>77/116</t>
   </si>
   <si>
+    <t>Prabhag 29B : Pushpa Kanojia</t>
+  </si>
+  <si>
     <t>124/127</t>
   </si>
   <si>
-    <t>Cleaning</t>
+    <t>Installation of Nameplates</t>
   </si>
   <si>
-    <t>Prabhag 29B : Pushpa Kanojia</t>
-  </si>
-  <si>
-    <t>Installation of Nameplates</t>
+    <t>Cleaning</t>
   </si>
   <si>
     <t>77 / 77</t>
@@ -701,18 +701,21 @@
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -727,8 +730,18 @@
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -737,12 +750,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -751,13 +758,6 @@
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
@@ -775,43 +775,43 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -833,7 +833,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -844,28 +844,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -889,25 +889,25 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="13">
         <v>200000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="15">
         <v>2.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" s="15">
         <v>93.93</v>
@@ -915,140 +915,140 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13">
         <v>281000.0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13">
         <v>156000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <v>4.0</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>17</v>
+      <c r="C6" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="13">
         <v>284000.0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>5.0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>19</v>
+      <c r="C7" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="13">
         <v>106000.0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11">
         <v>6.0</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>21</v>
+      <c r="C8" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="13">
         <v>200000.0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="22" t="str">
+      <c r="C9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="23" t="str">
         <f>SUM(D3:D8)</f>
         <v>1227000</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>1.0</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13">
         <v>400000.0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F10" s="15">
         <v>0.0</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H10" s="15">
         <v>93.5</v>
@@ -1056,120 +1056,120 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>2.0</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D11" s="13">
         <v>255000.0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>3.0</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13">
         <v>154000.0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>4.0</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>10</v>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="13">
         <v>200000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11">
         <v>5.0</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>31</v>
+      <c r="C14" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="13">
         <v>200000.0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="22" t="str">
+      <c r="C15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="23" t="str">
         <f>SUM(D10:D14)</f>
         <v>1209000</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11">
         <v>1.0</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>34</v>
+      <c r="C16" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="13">
         <v>852000.0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F16" s="15">
         <v>0.0</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H16" s="15">
         <v>96.55</v>
@@ -1177,80 +1177,80 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11">
         <v>2.0</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>36</v>
+      <c r="C17" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="13">
         <v>252000.0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11">
         <v>3.0</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D18" s="13">
         <v>169000.0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="22" t="str">
+      <c r="C19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="23" t="str">
         <f>SUM(D16:D18)</f>
         <v>1273000</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11">
         <v>1.0</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D20" s="13">
         <v>200000.0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F20" s="15">
         <v>0.0</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="H20" s="15">
         <v>91.33</v>
@@ -1258,177 +1258,177 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>2.0</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D21" s="13">
         <v>200000.0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>3.0</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D22" s="13">
         <v>200000.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>4.0</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D23" s="13">
         <v>200000.0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>5.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D24" s="13">
         <v>200000.0</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11">
         <v>6.0</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D25" s="13">
         <v>200000.0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11">
         <v>7.0</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>36</v>
+      <c r="C26" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="D26" s="13">
         <v>200000.0</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11">
         <v>8.0</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>36</v>
+      <c r="C27" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="D27" s="13">
         <v>200000.0</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" s="19"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="22" t="str">
+      <c r="B28" s="29"/>
+      <c r="C28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="23" t="str">
         <f>SUM(D20:D27)</f>
         <v>1600000</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
     </row>
     <row r="29">
       <c r="A29" s="9"/>
@@ -1440,19 +1440,19 @@
     <row r="30">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="33" t="str">
+      <c r="C30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="36" t="str">
         <f>(D9+D15+D19+D28)</f>
         <v>5309000</v>
       </c>
       <c r="E30" s="31"/>
-      <c r="F30" s="34" t="str">
+      <c r="F30" s="37" t="str">
         <f>SUM(F3:F27)</f>
         <v>2</v>
       </c>
-      <c r="H30" s="35" t="str">
+      <c r="H30" s="38" t="str">
         <f>AVERAGE(H5:H28)</f>
         <v>93.79333333</v>
       </c>
@@ -8277,19 +8277,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H10:H15"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="F10:F15"/>
     <mergeCell ref="F20:F27"/>
     <mergeCell ref="H20:H27"/>
     <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G10:G15"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="H3:H9"/>
     <mergeCell ref="F3:F9"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8325,28 +8325,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -8370,154 +8370,154 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>102</v>
+      <c r="C3" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D3" s="13">
         <v>324000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="36">
+        <v>79</v>
+      </c>
+      <c r="F3" s="16">
         <v>0.0</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="16">
         <v>69.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
+      <c r="C4" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="13">
         <v>188000.0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13">
         <v>336000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="22" t="str">
+      <c r="C6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="23" t="str">
         <f>SUM(D3:D5)</f>
         <v>848000</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B7" s="11">
         <v>1.0</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>17</v>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="13">
         <v>110000.0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="36">
+        <v>25</v>
+      </c>
+      <c r="F7" s="16">
         <v>0.0</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="16">
         <v>81.81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B8" s="11">
         <v>2.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13">
         <v>604000.0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>3.0</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>102</v>
+      <c r="C9" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="13">
         <v>110000.0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>4.0</v>
@@ -8529,15 +8529,15 @@
         <v>200000.0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>5.0</v>
@@ -8551,74 +8551,74 @@
       <c r="E11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="22" t="str">
+      <c r="C12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="23" t="str">
         <f>SUM(D7:D11)</f>
         <v>1201000</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11">
         <v>1.0</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>102</v>
+      <c r="C13" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D13" s="13">
         <v>252000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="36">
+        <v>79</v>
+      </c>
+      <c r="F13" s="16">
         <v>0.0</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="16">
         <v>81.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11">
         <v>2.0</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D14" s="13">
         <v>292000.0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B15" s="11">
         <v>3.0</v>
@@ -8626,13 +8626,13 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11">
         <v>4.0</v>
@@ -8640,165 +8640,165 @@
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="22" t="str">
+      <c r="C17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="23" t="str">
         <f>SUM(D13:D16)</f>
         <v>544000</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B18" s="11">
         <v>1.0</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>79</v>
+      <c r="C18" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D18" s="13">
         <v>200000.0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="36">
+        <v>79</v>
+      </c>
+      <c r="F18" s="16">
         <v>0.0</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="16">
         <v>74.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B19" s="11">
         <v>2.0</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>79</v>
+      <c r="C19" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D19" s="13">
         <v>200000.0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11">
         <v>3.0</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>79</v>
+      <c r="C20" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D20" s="13">
         <v>200000.0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>4.0</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D21" s="13">
         <v>200000.0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>5.0</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D22" s="13">
         <v>112508.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>6.0</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D23" s="13">
         <v>200000.0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="22" t="str">
+      <c r="C24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="23" t="str">
         <f>SUM(D18:D23)</f>
         <v>1112508</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" s="9"/>
@@ -8810,19 +8810,19 @@
     <row r="26">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="33" t="str">
+      <c r="C26" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="36" t="str">
         <f>(D6+D12+D17+D24)</f>
         <v>3705508</v>
       </c>
       <c r="E26" s="31"/>
-      <c r="F26" s="34" t="str">
+      <c r="F26" s="37" t="str">
         <f>SUM(F1:F23)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="34" t="str">
+      <c r="H26" s="37" t="str">
         <f>AVERAGE(H3:H24)</f>
         <v>77.0475</v>
       </c>
@@ -15647,11 +15647,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F7:F12"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="F18:F24"/>
@@ -15659,6 +15654,11 @@
     <mergeCell ref="H18:H24"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="H7:H12"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F7:F12"/>
     <mergeCell ref="G7:G12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -15683,7 +15683,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -15695,28 +15695,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -15740,33 +15740,33 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D3" s="13">
         <v>42000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3" s="15">
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="36">
+        <v>17</v>
+      </c>
+      <c r="H3" s="16">
         <v>87.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
@@ -15774,13 +15774,13 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
@@ -15788,13 +15788,13 @@
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <v>4.0</v>
@@ -15802,13 +15802,13 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>5.0</v>
@@ -15816,54 +15816,54 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="22" t="str">
+      <c r="C8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="23" t="str">
         <f>SUM(D3:D7)</f>
         <v>42000</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>1.0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D9" s="13">
         <v>103000.0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F9" s="15">
         <v>0.0</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="36">
+        <v>41</v>
+      </c>
+      <c r="H9" s="16">
         <v>67.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>2.0</v>
@@ -15871,13 +15871,13 @@
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>3.0</v>
@@ -15885,13 +15885,13 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>4.0</v>
@@ -15899,40 +15899,40 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="22" t="str">
+      <c r="C13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="23" t="str">
         <f>SUM(D9:D12)</f>
         <v>103000</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11">
         <v>1.0</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13">
         <v>139000.0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="15">
         <v>0.0</v>
@@ -15940,49 +15940,49 @@
       <c r="G14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="16">
         <v>48.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B15" s="11">
         <v>2.0</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>55</v>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="13">
         <v>429000.0</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11">
         <v>3.0</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>56</v>
+      <c r="C16" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="13">
         <v>465000.0</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11">
         <v>4.0</v>
@@ -15990,128 +15990,128 @@
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="22" t="str">
+      <c r="C18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="23" t="str">
         <f>SUM(D14:D17)</f>
         <v>1033000</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B19" s="11">
         <v>1.0</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D19" s="13">
         <v>200000.0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F19" s="15">
         <v>0.0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="36">
+        <v>65</v>
+      </c>
+      <c r="H19" s="16">
         <v>72.44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11">
         <v>2.0</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D20" s="13">
         <v>200000.0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>3.0</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D21" s="13">
         <v>200000.0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>4.0</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D22" s="13">
         <v>200000.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="22" t="str">
+      <c r="C23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="23" t="str">
         <f>SUM(D19:D22)</f>
         <v>800000</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="37" t="str">
+      <c r="E23" s="24"/>
+      <c r="F23" s="27" t="str">
         <f>SUM(F3:F22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24">
       <c r="A24" s="9"/>
@@ -16123,19 +16123,19 @@
     <row r="25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="33" t="str">
+      <c r="C25" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="36" t="str">
         <f>(D8+D13+D18+D23)</f>
         <v>1978000</v>
       </c>
       <c r="E25" s="31"/>
-      <c r="F25" s="34" t="str">
+      <c r="F25" s="37" t="str">
         <f>SUM(F2:F22)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="34" t="str">
+      <c r="H25" s="37" t="str">
         <f>AVERAGE(H4:H23)</f>
         <v>62.74666667</v>
       </c>
@@ -22960,19 +22960,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="H9:H13"/>
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="G3:G8"/>
+    <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H3:H8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F14:F18"/>
     <mergeCell ref="F9:F13"/>
+    <mergeCell ref="H14:H18"/>
     <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H9:H13"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22996,7 +22996,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23008,28 +23008,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -23053,335 +23053,335 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D3" s="13">
         <v>346000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="36">
+        <v>14</v>
+      </c>
+      <c r="F3" s="16">
         <v>0.0</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="36">
+      <c r="G3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="16">
         <v>84.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13">
         <v>333000.0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="13">
         <v>200000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <v>4.0</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>64</v>
+      <c r="C6" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="13">
         <v>175000.0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>5.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D7" s="13">
         <v>200000.0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="22" t="str">
+      <c r="C8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="23" t="str">
         <f>SUM(D3:D7)</f>
         <v>1254000</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>1.0</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>67</v>
+      <c r="C9" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="13">
         <v>158000.0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="36">
+        <v>31</v>
+      </c>
+      <c r="F9" s="16">
         <v>0.0</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="36">
+      <c r="G9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="16">
         <v>92.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>2.0</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D10" s="13">
         <v>160000.0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>3.0</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
+      <c r="C11" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D11" s="13">
         <v>200000.0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>4.0</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12" s="13">
         <v>306000.0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>5.0</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>69</v>
+      <c r="C13" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="13">
         <v>256000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11">
         <v>6.0</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>70</v>
+      <c r="C14" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="13">
         <v>136000.0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11">
         <v>7.0</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>71</v>
+      <c r="C15" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="13">
         <v>153000.0</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="22" t="str">
+      <c r="C16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="23" t="str">
         <f>SUM(D9:D15)</f>
         <v>1369000</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11">
         <v>1.0</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>70</v>
+      <c r="C17" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="13">
         <v>295000.0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="36">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16">
         <v>0.0</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="36">
+      <c r="G17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="16">
         <v>94.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11">
         <v>2.0</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D18" s="13">
         <v>130000.0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B19" s="11">
         <v>3.0</v>
@@ -23389,13 +23389,13 @@
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B20" s="11">
         <v>4.0</v>
@@ -23403,288 +23403,288 @@
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="22" t="str">
+      <c r="C21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="23" t="str">
         <f>SUM(D17:D20)</f>
         <v>425000</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>1.0</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D22" s="13">
         <v>139932.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="36">
+        <v>21</v>
+      </c>
+      <c r="F22" s="16">
         <v>0.0</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="36">
+      <c r="G22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="16">
         <v>90.55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>2.0</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="13">
         <v>84974.0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>3.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D24" s="13">
         <v>112598.0</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11">
         <v>4.0</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D25" s="13">
         <v>200000.0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11">
         <v>5.0</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D26" s="13">
         <v>200000.0</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11">
         <v>6.0</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>78</v>
+      <c r="C27" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="13">
         <v>200000.0</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B28" s="11">
         <v>7.0</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>78</v>
+      <c r="C28" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="D28" s="13">
         <v>200000.0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B29" s="11">
         <v>8.0</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="13">
         <v>200000.0</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B30" s="11">
         <v>9.0</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>70</v>
+      <c r="C30" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D30" s="13">
         <v>200000.0</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B31" s="11">
         <v>10.0</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>70</v>
+      <c r="C31" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D31" s="13">
         <v>115000.0</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B32" s="11">
         <v>11.0</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="13">
         <v>200000.0</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B33" s="11">
         <v>12.0</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="13">
         <v>200000.0</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="22" t="str">
+      <c r="C34" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="23" t="str">
         <f>SUM(D22:D33)</f>
         <v>2052504</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="7" t="str">
         <f>SUM(F3:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35">
       <c r="A35" s="9"/>
@@ -23696,19 +23696,19 @@
     <row r="36">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="33" t="str">
+      <c r="C36" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="36" t="str">
         <f>(D8+D16+D21+D34)</f>
         <v>5100504</v>
       </c>
       <c r="E36" s="31"/>
-      <c r="F36" s="34" t="str">
+      <c r="F36" s="37" t="str">
         <f>SUM(F5:F33)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="34" t="str">
+      <c r="H36" s="37" t="str">
         <f>AVERAGE(H7:H34)</f>
         <v>92.53</v>
       </c>
@@ -30533,19 +30533,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F22:F33"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="H17:H21"/>
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="G9:G16"/>
     <mergeCell ref="G22:G33"/>
     <mergeCell ref="H22:H33"/>
+    <mergeCell ref="F22:F33"/>
+    <mergeCell ref="G3:G8"/>
     <mergeCell ref="F3:F8"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F17:F21"/>
     <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="H17:H21"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30580,28 +30580,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -30625,7 +30625,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
@@ -30639,19 +30639,19 @@
       <c r="E3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="16">
         <v>0.0</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="16">
         <v>66.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
@@ -30663,529 +30663,529 @@
         <v>167000.0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13">
         <v>157000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <v>4.0</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="13">
         <v>139000.0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>5.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="13">
         <v>200000.0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="22" t="str">
+      <c r="C8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="23" t="str">
         <f>SUM(D3:D7)</f>
         <v>833000</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>1.0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D9" s="13">
         <v>284000.0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="36">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16">
         <v>0.0</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="16">
         <v>61.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>2.0</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>90</v>
+      <c r="C10" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="13">
         <v>344000.0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>3.0</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>91</v>
+      <c r="C11" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="D11" s="13">
         <v>103000.0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>4.0</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>92</v>
+      <c r="C12" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D12" s="13">
         <v>126000.0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>5.0</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="13">
         <v>193000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11">
         <v>6.0</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>25</v>
+      <c r="C14" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="13">
         <v>400000.0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11">
         <v>7.0</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>17</v>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="13">
         <v>147000.0</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="22" t="str">
+      <c r="C16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="23" t="str">
         <f>SUM(D9:D15)</f>
         <v>1597000</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11">
         <v>1.0</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>34</v>
+      <c r="C17" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="D17" s="13">
         <v>295000.0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="36">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16">
         <v>0.0</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="36">
+      <c r="G17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="16">
         <v>63.79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11">
         <v>2.0</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>90</v>
+      <c r="C18" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="D18" s="13">
         <v>475000.0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B19" s="11">
         <v>3.0</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D19" s="13">
         <v>149000.0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="22" t="str">
+      <c r="C20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="23" t="str">
         <f>SUM(D17:D19)</f>
         <v>919000</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>1.0</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D21" s="13">
         <v>200000.0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="36">
+        <v>32</v>
+      </c>
+      <c r="F21" s="16">
         <v>0.0</v>
       </c>
-      <c r="G21" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="36">
+      <c r="G21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="16">
         <v>69.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>2.0</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>17</v>
+      <c r="C22" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="13">
         <v>200000.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>3.0</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>17</v>
+      <c r="C23" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="13">
         <v>200000.0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>4.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D24" s="13">
         <v>200000.0</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11">
         <v>5.0</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>95</v>
+      <c r="C25" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="D25" s="13">
         <v>200000.0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11">
         <v>6.0</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="13">
         <v>200000.0</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11">
         <v>7.0</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D27" s="13">
         <v>200000.0</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B28" s="11">
         <v>8.0</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D28" s="13">
         <v>200000.0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B29" s="11">
         <v>9.0</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>95</v>
+      <c r="C29" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="D29" s="13">
         <v>200000.0</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="22" t="str">
+      <c r="C30" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="23" t="str">
         <f>SUM(D21:D29)</f>
         <v>1800000</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" s="9"/>
@@ -31197,19 +31197,19 @@
     <row r="32">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="33" t="str">
+      <c r="C32" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="36" t="str">
         <f>(D8+D16+D20+D30)</f>
         <v>5149000</v>
       </c>
       <c r="E32" s="31"/>
-      <c r="F32" s="34" t="str">
+      <c r="F32" s="37" t="str">
         <f>SUM(F4:F29)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="34" t="str">
+      <c r="H32" s="37" t="str">
         <f>AVERAGE(H6:H30)</f>
         <v>64.70333333</v>
       </c>
@@ -38034,19 +38034,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G21:G30"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="G9:G16"/>
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="F17:F20"/>
     <mergeCell ref="F21:F30"/>
+    <mergeCell ref="G17:G20"/>
     <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F9:F16"/>
     <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G21:G30"/>
     <mergeCell ref="H21:H30"/>
+    <mergeCell ref="G9:G16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38071,7 +38071,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -38082,28 +38082,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -38127,287 +38127,287 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="13">
         <v>200000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="36">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16">
         <v>0.0</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="36">
+      <c r="G3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="16">
         <v>89.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13">
         <v>539000.0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="13">
         <v>101000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <v>4.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="13">
         <v>155000.0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>5.0</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>17</v>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="13">
         <v>196000.0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11">
         <v>6.0</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>31</v>
+      <c r="C8" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="13">
         <v>185000.0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11">
         <v>7.0</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>102</v>
+      <c r="C9" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="13">
         <v>195000.0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="22" t="str">
+      <c r="C10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="23" t="str">
         <f>SUM(D3:D9)</f>
         <v>1571000</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>1.0</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D11" s="13">
         <v>348000.0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="36">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16">
         <v>0.0</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="36">
+      <c r="G11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="16">
         <v>97.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>2.0</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>17</v>
+      <c r="C12" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="13">
         <v>198000.0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>3.0</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="13">
         <v>580000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11">
         <v>4.0</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="13">
         <v>400000.0</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11">
         <v>5.0</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D15" s="13">
         <v>389000.0</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="22" t="str">
+      <c r="C16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="23" t="str">
         <f>SUM(D11:D15)</f>
         <v>1915000</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11">
         <v>1.0</v>
@@ -38415,19 +38415,19 @@
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="36">
+      <c r="F17" s="16">
         <v>0.0</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="16">
         <v>72.41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11">
         <v>2.0</v>
@@ -38435,13 +38435,13 @@
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B19" s="11">
         <v>3.0</v>
@@ -38449,13 +38449,13 @@
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B20" s="11">
         <v>4.0</v>
@@ -38463,265 +38463,265 @@
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="22" t="str">
+      <c r="C21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="23" t="str">
         <f>SUM(D17:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>1.0</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D22" s="13">
         <v>200000.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="36">
+        <v>21</v>
+      </c>
+      <c r="F22" s="16">
         <v>0.0</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="36">
+      <c r="G22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="16">
         <v>81.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>2.0</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D23" s="13">
         <v>200000.0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>3.0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D24" s="13">
         <v>200000.0</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11">
         <v>4.0</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="13">
         <v>200000.0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11">
         <v>5.0</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>43</v>
+      <c r="C26" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="D26" s="13">
         <v>200000.0</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11">
         <v>6.0</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D27" s="13">
         <v>200000.0</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B28" s="11">
         <v>7.0</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D28" s="13">
         <v>200000.0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B29" s="11">
         <v>8.0</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>108</v>
+      <c r="C29" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="D29" s="13">
         <v>200000.0</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B30" s="11">
         <v>9.0</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>108</v>
+      <c r="C30" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="D30" s="13">
         <v>200000.0</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B31" s="11">
         <v>10.0</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="13">
         <v>200000.0</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B32" s="11">
         <v>11.0</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="13">
         <v>200000.0</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="22" t="str">
+      <c r="C33" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="23" t="str">
         <f>SUM(D22:D32)</f>
         <v>2200000</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" s="9"/>
@@ -38733,19 +38733,19 @@
     <row r="35">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="33" t="str">
+      <c r="C35" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="36" t="str">
         <f>(D10+D16+D21+D33)</f>
         <v>5686000</v>
       </c>
       <c r="E35" s="31"/>
-      <c r="F35" s="34" t="str">
+      <c r="F35" s="37" t="str">
         <f>SUM(F5:F32)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="34" t="str">
+      <c r="H35" s="37" t="str">
         <f>AVERAGE(H7:H33)</f>
         <v>83.63666667</v>
       </c>
@@ -45570,19 +45570,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="F11:F16"/>
     <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H17:H21"/>
     <mergeCell ref="F22:F33"/>
     <mergeCell ref="G22:G33"/>
     <mergeCell ref="H22:H33"/>
     <mergeCell ref="H3:H10"/>
     <mergeCell ref="H11:H16"/>
-    <mergeCell ref="G3:G10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -45607,7 +45607,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -45619,28 +45619,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -45664,154 +45664,154 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D3" s="13">
         <v>628000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="36">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16">
         <v>0.0</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="36">
+      <c r="G3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="16">
         <v>84.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
+      <c r="C4" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="13">
         <v>200000.0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="13">
         <v>200000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <v>4.0</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>102</v>
+      <c r="C6" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="13">
         <v>200000.0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="22" t="str">
+      <c r="C7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="23" t="str">
         <f>SUM(D3:D6)</f>
         <v>1228000</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B8" s="11">
         <v>1.0</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>102</v>
+      <c r="C8" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D8" s="13">
         <v>200000.0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="36">
+        <v>79</v>
+      </c>
+      <c r="F8" s="16">
         <v>1.0</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="16">
         <v>72.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>2.0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="13">
         <v>600000.0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>3.0</v>
@@ -45825,18 +45825,18 @@
       <c r="E10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>4.0</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="13">
@@ -45845,59 +45845,59 @@
       <c r="E11" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="22" t="str">
+      <c r="C12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="23" t="str">
         <f>SUM(D8:D11)</f>
         <v>1600000</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11">
         <v>1.0</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13">
         <v>149000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="36">
+        <v>21</v>
+      </c>
+      <c r="F13" s="16">
         <v>0.0</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="16">
         <v>93.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11">
         <v>2.0</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="13">
@@ -45906,13 +45906,13 @@
       <c r="E14" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B15" s="11">
         <v>3.0</v>
@@ -45920,13 +45920,13 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11">
         <v>4.0</v>
@@ -45934,28 +45934,28 @@
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="22" t="str">
+      <c r="C17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="23" t="str">
         <f>SUM(D13:D16)</f>
         <v>345000</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B18" s="11">
         <v>1.0</v>
@@ -45967,106 +45967,106 @@
         <v>200000.0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="36">
+        <v>23</v>
+      </c>
+      <c r="F18" s="16">
         <v>2.0</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="16">
         <v>85.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B19" s="11">
         <v>2.0</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D19" s="13">
         <v>200000.0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11">
         <v>3.0</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D20" s="13">
         <v>200000.0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>4.0</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D21" s="13">
         <v>200000.0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>5.0</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D22" s="13">
         <v>199557.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>6.0</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="21" t="s">
         <v>115</v>
       </c>
       <c r="D23" s="13">
@@ -46075,44 +46075,44 @@
       <c r="E23" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>7.0</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>79</v>
+      <c r="C24" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D24" s="13">
         <v>200000.0</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="22" t="str">
+      <c r="C25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="23" t="str">
         <f>SUM(D18:D24)</f>
         <v>1399557</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
@@ -46124,19 +46124,19 @@
     <row r="27">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="33" t="str">
+      <c r="C27" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="36" t="str">
         <f>(D7+D12+D17+D25)</f>
         <v>4572557</v>
       </c>
       <c r="E27" s="31"/>
-      <c r="F27" s="34" t="str">
+      <c r="F27" s="37" t="str">
         <f>SUM(F1:F24)</f>
         <v>3</v>
       </c>
-      <c r="H27" s="34" t="str">
+      <c r="H27" s="37" t="str">
         <f>AVERAGE(H3:H25)</f>
         <v>84.12</v>
       </c>
@@ -52961,19 +52961,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="F8:F12"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="H18:H24"/>
     <mergeCell ref="G18:G24"/>
     <mergeCell ref="F18:F24"/>
     <mergeCell ref="H8:H12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="H13:H17"/>
+    <mergeCell ref="F8:F12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -53010,28 +53010,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -53055,38 +53055,38 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="13">
         <v>394000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="36">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16">
         <v>0.0</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="16">
         <v>50.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D4" s="13">
@@ -53095,159 +53095,159 @@
       <c r="E4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>90</v>
+      <c r="C5" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="D5" s="13">
         <v>148000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <v>4.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D6" s="13">
         <v>158000.0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>5.0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>92</v>
+      <c r="C7" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D7" s="13">
         <v>226000.0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11">
         <v>6.0</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>31</v>
+      <c r="C8" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="13">
         <v>198000.0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="22" t="str">
+      <c r="C9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="23" t="str">
         <f>SUM(D3:D8)</f>
         <v>1423000</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>1.0</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="13">
         <v>299000.0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="36">
+        <v>43</v>
+      </c>
+      <c r="F10" s="16">
         <v>0.0</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="16">
         <v>63.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>2.0</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="13">
         <v>157000.0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>3.0</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D12" s="13">
@@ -53256,38 +53256,38 @@
       <c r="E12" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>4.0</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>90</v>
+      <c r="C13" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="13">
         <v>280000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11">
         <v>5.0</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="13">
@@ -53296,94 +53296,94 @@
       <c r="E14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11">
         <v>6.0</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>17</v>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="13">
         <v>136000.0</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="22" t="str">
+      <c r="C16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="23" t="str">
         <f>SUM(D10:D15)</f>
         <v>1230000</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11">
         <v>1.0</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>17</v>
+      <c r="C17" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="13">
         <v>298000.0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="36">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16">
         <v>0.0</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="16">
         <v>66.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11">
         <v>2.0</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D18" s="13">
         <v>298000.0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B19" s="11">
         <v>3.0</v>
@@ -53391,13 +53391,13 @@
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B20" s="11">
         <v>4.0</v>
@@ -53405,185 +53405,185 @@
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="22" t="str">
+      <c r="C21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="23" t="str">
         <f>SUM(D17:D20)</f>
         <v>596000</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>1.0</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22" s="13">
         <v>200000.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="36">
+        <v>16</v>
+      </c>
+      <c r="F22" s="16">
         <v>0.0</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="36">
+      <c r="G22" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="16">
         <v>97.63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>2.0</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>30</v>
+      <c r="C23" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D23" s="13">
         <v>200000.0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>3.0</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>30</v>
+      <c r="C24" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D24" s="13">
         <v>200000.0</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11">
         <v>4.0</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>17</v>
+      <c r="C25" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D25" s="13">
         <v>200000.0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11">
         <v>5.0</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D26" s="13">
         <v>200000.0</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11">
         <v>6.0</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>79</v>
+      <c r="C27" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="13">
         <v>200000.0</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B28" s="11">
         <v>7.0</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>79</v>
+      <c r="C28" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D28" s="13">
         <v>200000.0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="22" t="str">
+      <c r="C29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="23" t="str">
         <f>SUM(D22:D28)</f>
         <v>1400000</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="38"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30">
       <c r="A30" s="9"/>
@@ -53595,19 +53595,19 @@
     <row r="31">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="33" t="str">
+      <c r="C31" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="36" t="str">
         <f>(D9+D16+D21+D29)</f>
         <v>4649000</v>
       </c>
       <c r="E31" s="31"/>
-      <c r="F31" s="34" t="str">
+      <c r="F31" s="37" t="str">
         <f>SUM(F5:F28)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="34" t="str">
+      <c r="H31" s="37" t="str">
         <f>AVERAGE(H7:H29)</f>
         <v>75.87666667</v>
       </c>
@@ -60432,11 +60432,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H10:H16"/>
-    <mergeCell ref="H17:H21"/>
     <mergeCell ref="G17:G21"/>
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="H22:H28"/>
@@ -60444,6 +60439,11 @@
     <mergeCell ref="F22:F28"/>
     <mergeCell ref="F10:F16"/>
     <mergeCell ref="F3:F9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="H17:H21"/>
     <mergeCell ref="G10:G16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -60469,7 +60469,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -60480,28 +60480,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -60525,199 +60525,199 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>31</v>
+      <c r="C3" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="13">
         <v>200000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="36">
+        <v>46</v>
+      </c>
+      <c r="F3" s="16">
         <v>2.0</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="36">
+      <c r="G3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="16">
         <v>93.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="13">
         <v>200000.0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="13">
         <v>159000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
         <v>4.0</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="13">
         <v>330000.0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
         <v>5.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D7" s="40">
         <v>516000.0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11">
         <v>6.0</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D8" s="13">
         <v>211000.0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="22" t="str">
+      <c r="C9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="23" t="str">
         <f>SUM(D3:D8)</f>
         <v>1616000</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>1.0</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>17</v>
+      <c r="C10" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="13">
         <v>352000.0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="36">
+        <v>25</v>
+      </c>
+      <c r="F10" s="16">
         <v>4.0</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="16">
         <v>100.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>2.0</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13">
         <v>441000.0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>3.0</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="13">
@@ -60726,99 +60726,99 @@
       <c r="E12" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>4.0</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>102</v>
+      <c r="C13" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D13" s="13">
         <v>155000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="22" t="str">
+      <c r="C14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="23" t="str">
         <f>SUM(D10:D13)</f>
         <v>1407000</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B15" s="11">
         <v>1.0</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>17</v>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="13">
         <v>102000.0</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="36">
+        <v>25</v>
+      </c>
+      <c r="F15" s="16">
         <v>2.0</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="16">
         <v>98.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11">
         <v>2.0</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D16" s="13">
         <v>306000.0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11">
         <v>3.0</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D17" s="13">
@@ -60827,13 +60827,13 @@
       <c r="E17" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11">
         <v>4.0</v>
@@ -60841,28 +60841,28 @@
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="22" t="str">
+      <c r="C19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="23" t="str">
         <f>SUM(D15:D18)</f>
         <v>552000</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11">
         <v>1.0</v>
@@ -60874,21 +60874,21 @@
         <v>60781.0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="36">
+        <v>31</v>
+      </c>
+      <c r="F20" s="16">
         <v>0.0</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="16">
         <v>96.85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>2.0</v>
@@ -60900,75 +60900,75 @@
         <v>200000.0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>3.0</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>30</v>
+      <c r="C22" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="13">
         <v>200000.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>4.0</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>30</v>
+      <c r="C23" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D23" s="13">
         <v>200000.0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>5.0</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>30</v>
+      <c r="C24" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D24" s="13">
         <v>200000.0</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11">
         <v>6.0</v>
@@ -60982,64 +60982,64 @@
       <c r="E25" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11">
         <v>7.0</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>30</v>
+      <c r="C26" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D26" s="13">
         <v>200000.0</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11">
         <v>8.0</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>79</v>
+      <c r="C27" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="13">
         <v>200000.0</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="22" t="str">
+      <c r="C28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="23" t="str">
         <f>SUM(D20:D27)</f>
         <v>1460781</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" s="9"/>
@@ -61051,20 +61051,20 @@
     <row r="30">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="33" t="str">
+      <c r="C30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="36" t="str">
         <f>(D9+D14+D19+D28)</f>
         <v>5035781</v>
       </c>
       <c r="E30" s="31"/>
-      <c r="F30" s="34" t="str">
+      <c r="F30" s="37" t="str">
         <f>SUM(F3:F27)</f>
         <v>8</v>
       </c>
       <c r="G30" s="40"/>
-      <c r="H30" s="34" t="str">
+      <c r="H30" s="37" t="str">
         <f>AVERAGE(H5:H28)</f>
         <v>98.37333333</v>
       </c>
@@ -67889,18 +67889,18 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="H10:H14"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="F3:F9"/>
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="F20:F27"/>
+    <mergeCell ref="G10:G14"/>
     <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H10:H14"/>
     <mergeCell ref="H20:H27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -67937,28 +67937,28 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -67982,69 +67982,69 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>1.0</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>31</v>
+      <c r="C3" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="13">
         <v>372000.0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="36">
+        <v>46</v>
+      </c>
+      <c r="F3" s="16">
         <v>36.0</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="16">
         <v>68.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>2.0</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>17</v>
+      <c r="C4" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="13">
         <v>166000.0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
         <v>3.0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13">
         <v>200000.0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="10"/>
@@ -68052,9 +68052,9 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="10"/>
@@ -68062,74 +68062,74 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="22" t="str">
+      <c r="C8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="23" t="str">
         <f>SUM(D3:D7)</f>
         <v>738000</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>1.0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D9" s="13">
         <v>339000.0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="36">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16">
         <v>36.0</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="16">
         <v>66.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>2.0</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="13">
         <v>493000.0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <v>3.0</v>
@@ -68143,33 +68143,33 @@
       <c r="E11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>4.0</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>17</v>
+      <c r="C12" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="13">
         <v>322000.0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>5.0</v>
@@ -68181,76 +68181,76 @@
         <v>166000.0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11">
         <v>6.0</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="13">
         <v>155000.0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="22" t="str">
+      <c r="C15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="23" t="str">
         <f>SUM(D9:D14)</f>
         <v>1652000</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11">
         <v>1.0</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D16" s="13">
         <v>296000.0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="36">
+        <v>21</v>
+      </c>
+      <c r="F16" s="16">
         <v>23.0</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="16">
         <v>82.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11">
         <v>2.0</v>
@@ -68258,13 +68258,13 @@
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11">
         <v>3.0</v>
@@ -68272,13 +68272,13 @@
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B19" s="11">
         <v>4.0</v>
@@ -68286,74 +68286,74 @@
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="22" t="str">
+      <c r="C20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="23" t="str">
         <f>SUM(D16:D19)</f>
         <v>296000</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>1.0</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D21" s="13">
         <v>143675.0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="36">
+        <v>21</v>
+      </c>
+      <c r="F21" s="16">
         <v>14.0</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="16">
         <v>87.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11">
         <v>2.0</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D22" s="13">
         <v>143675.0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11">
         <v>3.0</v>
@@ -68365,15 +68365,15 @@
         <v>200000.0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11">
         <v>4.0</v>
@@ -68381,24 +68381,24 @@
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="22" t="str">
+      <c r="C25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="23" t="str">
         <f>SUM(D21:D24)</f>
         <v>487350</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
@@ -68410,19 +68410,19 @@
     <row r="27">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="33" t="str">
+      <c r="C27" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="36" t="str">
         <f>(D8+D15+D20+D25)</f>
         <v>3173350</v>
       </c>
       <c r="E27" s="31"/>
-      <c r="F27" s="34" t="str">
+      <c r="F27" s="37" t="str">
         <f>SUM(F3:F25)</f>
         <v>109</v>
       </c>
-      <c r="H27" s="34" t="str">
+      <c r="H27" s="37" t="str">
         <f>AVERAGE(H6:H25)</f>
         <v>78.79333333</v>
       </c>
@@ -75247,18 +75247,18 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="H9:H15"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="H21:H25"/>
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="G16:G20"/>
+    <mergeCell ref="G9:G15"/>
     <mergeCell ref="G3:G8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="F16:F20"/>
+    <mergeCell ref="H9:H15"/>
     <mergeCell ref="H3:H8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
